--- a/biology/Botanique/Erigeron_divergens/Erigeron_divergens.xlsx
+++ b/biology/Botanique/Erigeron_divergens/Erigeron_divergens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erigeron divergens, la Vergerette divergente, est une espèce de plantes à fleurs de la famille des Asteraceae, originaire d'Amérique du Nord.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée de 10 à 70 cm de hauteur a des tiges plusieurs fois ramifiées. Elle est couverte de courts poils grisâtres, hérissés. Les feuilles de la base, disposées en touffe, sont lancéolées et fuselées côté tige ; elles mesurent de 1,3 à 2,5 cm de long. Les feuilles situées plus haut sur les tiges sont un peu plus petites[2].
-Appareil reproducteur
-La floraison a lieu d'avril à septembre. L'inflorescence est un capitule qui apparait à l'extrémité de chaque tige florale. Chaque capitule est précédé d'un involucre constitué de bractées très étroites, alignées côte à côte et ne se chevauchant pas.
-Le capitule en lui-même mesure environ 2,5 cm de diamètre. Il est constitué de fleurons ligulés de 6 à 10 mm de long, nombreux et très étroits, de couleur blanche parfois légèrement teinté de rose ou de couleur lavande (voir photo ci-contre). Au centre, des fleurons tubulaires jaunes forme le cœur du capitule[2].
-Les fruits sont des akènes prolongés par de nombreux poils raides très fins et très fragiles.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée de 10 à 70 cm de hauteur a des tiges plusieurs fois ramifiées. Elle est couverte de courts poils grisâtres, hérissés. Les feuilles de la base, disposées en touffe, sont lancéolées et fuselées côté tige ; elles mesurent de 1,3 à 2,5 cm de long. Les feuilles situées plus haut sur les tiges sont un peu plus petites.
 </t>
         </is>
       </c>
@@ -544,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erigeron divergens pousse dans les zones dégagées et sablonneuses des déserts et plaines, mais aussi dans les vallées ou au pied des collines.
-Son aire de répartition couvre une partie de l'ouest du continent nord-américain. On trouve en effet cette espèce du sud de la Colombie-Britannique, au Canada, jusqu'au Mexique. Son aire de répartition s'étend à l'ouest jusqu'au états américains du Montana, du Colorado et du Texas.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu d'avril à septembre. L'inflorescence est un capitule qui apparait à l'extrémité de chaque tige florale. Chaque capitule est précédé d'un involucre constitué de bractées très étroites, alignées côte à côte et ne se chevauchant pas.
+Le capitule en lui-même mesure environ 2,5 cm de diamètre. Il est constitué de fleurons ligulés de 6 à 10 mm de long, nombreux et très étroits, de couleur blanche parfois légèrement teinté de rose ou de couleur lavande (voir photo ci-contre). Au centre, des fleurons tubulaires jaunes forme le cœur du capitule.
+Les fruits sont des akènes prolongés par de nombreux poils raides très fins et très fragiles.
 </t>
         </is>
       </c>
@@ -576,16 +596,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erigeron divergens pousse dans les zones dégagées et sablonneuses des déserts et plaines, mais aussi dans les vallées ou au pied des collines.
+Son aire de répartition couvre une partie de l'ouest du continent nord-américain. On trouve en effet cette espèce du sud de la Colombie-Britannique, au Canada, jusqu'au Mexique. Son aire de répartition s'étend à l'ouest jusqu'au états américains du Montana, du Colorado et du Texas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erigeron_divergens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erigeron_divergens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des taxons de rang inférieur
-Liste des variétés selon GBIF       (23 mai 2021)[3] :
-Erigeron divergens var. typicus Cronquist
-Synonymes
-Erigeron divergens a pour synonymes[3] :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des taxons de rang inférieur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des variétés selon GBIF       (23 mai 2021) :
+Erigeron divergens var. typicus Cronquist</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erigeron_divergens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erigeron_divergens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erigeron divergens a pour synonymes :
 Erigeron accedens Greene
 Erigeron divaricatus Nutt.
 Erigeron divergens f. divergens
